--- a/estimates/testProgram.xlsx
+++ b/estimates/testProgram.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>estimate</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>test_13</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -571,8 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,13 +906,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="71.5703125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +960,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -949,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -966,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -980,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1060,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
